--- a/public/sample_uploads/interests.xlsx
+++ b/public/sample_uploads/interests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59082654-5DF4-4889-9E03-5CE9C8E3F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA098AE-BC78-4C0D-BE8B-25D1C66DB3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Buyer Entity Name</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Demat</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -469,17 +475,18 @@
     <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.06640625" customWidth="1"/>
+    <col min="9" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -499,31 +506,37 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -542,29 +555,29 @@
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1234567</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2000</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>5000</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -583,29 +596,29 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2345678</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>3000</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>5100</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -624,25 +637,25 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>3456789</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>4000</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>5200</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/public/sample_uploads/interests.xlsx
+++ b/public/sample_uploads/interests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA098AE-BC78-4C0D-BE8B-25D1C66DB3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6971D-8C84-4B26-8FCA-B267A83E7062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Buyer Entity Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Investor</t>
   </si>
   <si>
-    <t>Shortlisted</t>
-  </si>
-  <si>
     <t>Escrow Deposited</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>Demat</t>
+  </si>
+  <si>
+    <t>Short Listed Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>ShortListed</t>
+  </si>
+  <si>
+    <t>Short listed</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -479,7 +488,7 @@
     <col min="9" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.06640625" bestFit="1" customWidth="1"/>
@@ -506,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -521,51 +530,51 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>1234567</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2">
         <v>2000</v>
@@ -574,39 +583,39 @@
         <v>5000</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>2345678</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>3000</v>
@@ -615,39 +624,39 @@
         <v>5100</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>3456789</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
       <c r="N4">
         <v>4000</v>
@@ -656,7 +665,7 @@
         <v>5200</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
